--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 17.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 17.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,7 +498,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -568,7 +568,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -614,7 +614,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -706,7 +706,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -775,7 +775,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -798,7 +798,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -821,7 +821,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -844,7 +844,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -913,7 +913,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -959,7 +959,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -982,7 +982,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1143,7 +1143,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1166,7 +1166,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1189,7 +1189,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1212,7 +1212,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1235,7 +1235,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1281,7 +1281,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1515,7 +1515,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1607,7 +1607,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1630,7 +1630,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1653,7 +1653,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1676,7 +1676,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1699,7 +1699,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1722,7 +1722,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
